--- a/data/spring-cloud-shop/shop-cart-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-cart-model_structure.xlsx
@@ -327,60 +327,63 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>ADD</t>
   </si>
   <si>
-    <t>MODIFY</t>
+    <t>code</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
+    <t>skuId</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
+    <t>discountAmount</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>skuAmount</t>
   </si>
   <si>
-    <t>discountAmount</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>skuId</t>
-  </si>
-  <si>
     <t>orderCarts</t>
   </si>
   <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>sellerId</t>
+  </si>
+  <si>
+    <t>userOrderId</t>
+  </si>
+  <si>
     <t>sellerOrderId</t>
   </si>
   <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>userOrderId</t>
-  </si>
-  <si>
-    <t>sellerId</t>
-  </si>
-  <si>
     <t>APP_GOODS_CART_ADD_PREFIX</t>
   </si>
   <si>
     <t>goodsCartIds</t>
   </si>
   <si>
+    <t>expire</t>
+  </si>
+  <si>
     <t>skuName</t>
   </si>
   <si>
@@ -390,16 +393,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>expire</t>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>goodsAmount</t>
   </si>
   <si>
     <t>goodsImage</t>
-  </si>
-  <si>
-    <t>goodsAmount</t>
-  </si>
-  <si>
-    <t>goodsName</t>
   </si>
   <si>
     <t>goodsId</t>
@@ -3988,10 +3988,10 @@
         <v>102</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -4002,10 +4002,10 @@
         <v>103</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4033,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -4047,7 +4047,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -4061,7 +4061,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -4103,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -4111,13 +4111,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -4125,13 +4125,13 @@
         <v>54</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -4139,7 +4139,7 @@
         <v>54</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>15</v>
@@ -4153,7 +4153,7 @@
         <v>54</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>15</v>
@@ -4167,13 +4167,13 @@
         <v>54</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -4209,13 +4209,13 @@
         <v>68</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
@@ -4223,13 +4223,13 @@
         <v>68</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -4237,7 +4237,7 @@
         <v>72</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>15</v>
@@ -4251,13 +4251,13 @@
         <v>72</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -4265,13 +4265,13 @@
         <v>72</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -4279,7 +4279,7 @@
         <v>72</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>15</v>
@@ -4293,13 +4293,13 @@
         <v>74</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -4313,7 +4313,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -4321,13 +4321,13 @@
         <v>74</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4335,13 +4335,13 @@
         <v>74</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -4349,13 +4349,13 @@
         <v>74</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -4363,7 +4363,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>15</v>
@@ -4377,13 +4377,13 @@
         <v>74</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
@@ -4391,13 +4391,13 @@
         <v>74</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -4405,13 +4405,13 @@
         <v>74</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -4433,13 +4433,13 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -4447,13 +4447,13 @@
         <v>85</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -4461,13 +4461,13 @@
         <v>85</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -4475,13 +4475,13 @@
         <v>85</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -4489,13 +4489,13 @@
         <v>85</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -4503,13 +4503,13 @@
         <v>85</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
